--- a/tests/Utilits/loadDataExcel/createEntityForLoad/entityForLoad/testDataReestrOut_TAB2.xlsx
+++ b/tests/Utilits/loadDataExcel/createEntityForLoad/entityForLoad/testDataReestrOut_TAB2.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenServer525\domains\AnalizPDV\src\AnalizPdvBundle\Tests\testData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="930" windowWidth="19200" windowHeight="10215"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="153">
   <si>
     <t>A1_10</t>
   </si>
@@ -441,13 +436,43 @@
     <t>0</t>
   </si>
   <si>
-    <t>Зайво виписана</t>
-  </si>
-  <si>
     <t>09</t>
   </si>
   <si>
     <t>ПНЕ</t>
+  </si>
+  <si>
+    <t>опо//275</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>ПНП</t>
+  </si>
+  <si>
+    <t>44рдрлд</t>
+  </si>
+  <si>
+    <t>ллплпл</t>
+  </si>
+  <si>
+    <t>РКЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>пвав</t>
+  </si>
+  <si>
+    <t>апу</t>
+  </si>
+  <si>
+    <t>вап</t>
+  </si>
+  <si>
+    <t>вп</t>
   </si>
 </sst>
 </file>
@@ -621,7 +646,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -656,7 +681,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -833,7 +858,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -841,14 +866,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DR2"/>
+  <dimension ref="A1:DR9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DC1" workbookViewId="0">
-      <selection activeCell="DL2" sqref="DL2"/>
+    <sheetView tabSelected="1" topLeftCell="DB1" workbookViewId="0">
+      <selection activeCell="DC9" sqref="DC9:DH9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="86" max="86" width="13.25" customWidth="1"/>
+    <col min="100" max="100" width="10.25" customWidth="1"/>
     <col min="113" max="113" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1220,7 +1247,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:122" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1440,9 +1467,7 @@
       <c r="DK2" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="DL2" s="66" t="s">
-        <v>140</v>
-      </c>
+      <c r="DL2" s="66"/>
       <c r="DM2" t="s">
         <v>139</v>
       </c>
@@ -1450,13 +1475,1664 @@
         <v>139</v>
       </c>
       <c r="DP2" s="67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="DQ2" t="s">
         <v>131</v>
       </c>
       <c r="DR2" s="68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="63">
+        <v>0</v>
+      </c>
+      <c r="C3" s="63">
+        <v>0</v>
+      </c>
+      <c r="D3" s="63">
+        <v>202.52</v>
+      </c>
+      <c r="E3" s="63">
+        <v>202.52</v>
+      </c>
+      <c r="F3" s="63">
+        <v>0</v>
+      </c>
+      <c r="G3" s="63">
+        <v>0</v>
+      </c>
+      <c r="H3" s="63">
+        <v>0</v>
+      </c>
+      <c r="I3" s="63">
+        <v>0</v>
+      </c>
+      <c r="J3" s="63">
+        <v>0</v>
+      </c>
+      <c r="K3" s="63">
+        <v>0</v>
+      </c>
+      <c r="L3" s="63">
+        <v>59050561.409999996</v>
+      </c>
+      <c r="M3" s="63">
+        <v>48827882.259999998</v>
+      </c>
+      <c r="N3" s="63">
+        <v>22359.68</v>
+      </c>
+      <c r="O3" s="63">
+        <v>123463.2</v>
+      </c>
+      <c r="P3" s="63">
+        <v>9765574.3499999996</v>
+      </c>
+      <c r="Q3" s="63">
+        <v>1565.14</v>
+      </c>
+      <c r="R3" s="63">
+        <v>0</v>
+      </c>
+      <c r="S3" s="63">
+        <v>309473.75</v>
+      </c>
+      <c r="T3" s="63">
+        <v>309473.75</v>
+      </c>
+      <c r="U3" s="63">
+        <v>0</v>
+      </c>
+      <c r="V3" s="63">
+        <v>123694.78</v>
+      </c>
+      <c r="W3" s="63">
+        <v>0</v>
+      </c>
+      <c r="X3" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="63">
+        <v>1244624239.75</v>
+      </c>
+      <c r="AA3" s="63">
+        <v>712391934.27999997</v>
+      </c>
+      <c r="AB3" s="63">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="63">
+        <v>142478386.78999999</v>
+      </c>
+      <c r="AD3" s="63">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="63">
+        <v>389629893.60000002</v>
+      </c>
+      <c r="AG3" s="63">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="63">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="63">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="63">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="63">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="63">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL3" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM3" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="BN3" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO3" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="BP3" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="BQ3" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR3" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="BS3" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="BT3" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>131</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH3" s="64">
+        <v>42600</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CL3" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="CP3" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ3" s="63">
+        <v>0</v>
+      </c>
+      <c r="CR3" s="63">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="63">
+        <v>0</v>
+      </c>
+      <c r="CT3" s="63">
+        <v>0</v>
+      </c>
+      <c r="CV3" s="64">
+        <v>42551</v>
+      </c>
+      <c r="CW3" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>136</v>
+      </c>
+      <c r="CZ3" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="DA3" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>139</v>
+      </c>
+      <c r="DC3" s="63">
+        <v>3544.98</v>
+      </c>
+      <c r="DD3" s="63">
+        <v>2954.15</v>
+      </c>
+      <c r="DE3" s="63">
+        <v>0</v>
+      </c>
+      <c r="DF3" s="63">
+        <v>590.83000000000004</v>
+      </c>
+      <c r="DG3" s="63">
+        <v>0</v>
+      </c>
+      <c r="DH3" s="63">
+        <v>0</v>
+      </c>
+      <c r="DI3" s="64">
+        <v>36526</v>
+      </c>
+      <c r="DK3" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="DL3" s="68"/>
+      <c r="DM3" t="s">
+        <v>139</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>139</v>
+      </c>
+      <c r="DP3" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>131</v>
+      </c>
+      <c r="DR3" s="68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="63">
+        <v>0</v>
+      </c>
+      <c r="C4" s="63">
+        <v>0</v>
+      </c>
+      <c r="D4" s="63">
+        <v>202.52</v>
+      </c>
+      <c r="E4" s="63">
+        <v>202.52</v>
+      </c>
+      <c r="F4" s="63">
+        <v>0</v>
+      </c>
+      <c r="G4" s="63">
+        <v>0</v>
+      </c>
+      <c r="H4" s="63">
+        <v>0</v>
+      </c>
+      <c r="I4" s="63">
+        <v>0</v>
+      </c>
+      <c r="J4" s="63">
+        <v>0</v>
+      </c>
+      <c r="K4" s="63">
+        <v>0</v>
+      </c>
+      <c r="L4" s="63">
+        <v>59050561.409999996</v>
+      </c>
+      <c r="M4" s="63">
+        <v>48827882.259999998</v>
+      </c>
+      <c r="N4" s="63">
+        <v>22359.68</v>
+      </c>
+      <c r="O4" s="63">
+        <v>123463.2</v>
+      </c>
+      <c r="P4" s="63">
+        <v>9765574.3499999996</v>
+      </c>
+      <c r="Q4" s="63">
+        <v>1565.14</v>
+      </c>
+      <c r="R4" s="63">
+        <v>0</v>
+      </c>
+      <c r="S4" s="63">
+        <v>309473.75</v>
+      </c>
+      <c r="T4" s="63">
+        <v>309473.75</v>
+      </c>
+      <c r="U4" s="63">
+        <v>0</v>
+      </c>
+      <c r="V4" s="63">
+        <v>123694.78</v>
+      </c>
+      <c r="W4" s="63">
+        <v>0</v>
+      </c>
+      <c r="X4" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="63">
+        <v>1244624239.75</v>
+      </c>
+      <c r="AA4" s="63">
+        <v>712391934.27999997</v>
+      </c>
+      <c r="AB4" s="63">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="63">
+        <v>142478386.78999999</v>
+      </c>
+      <c r="AD4" s="63">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="63">
+        <v>389629893.60000002</v>
+      </c>
+      <c r="AG4" s="63">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="63">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="63">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="63">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="63">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="63">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL4" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM4" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="BN4" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO4" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="BP4" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="BQ4" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR4" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="BS4" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="BT4" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>131</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH4" s="64">
+        <v>42600</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>134</v>
+      </c>
+      <c r="CL4" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="CP4" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ4" s="63">
+        <v>0</v>
+      </c>
+      <c r="CR4" s="63">
+        <v>0</v>
+      </c>
+      <c r="CS4" s="63">
+        <v>0</v>
+      </c>
+      <c r="CT4" s="63">
+        <v>0</v>
+      </c>
+      <c r="CV4" s="64">
+        <v>42551</v>
+      </c>
+      <c r="CW4" s="68" t="s">
         <v>142</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>136</v>
+      </c>
+      <c r="CZ4" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="DA4" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>139</v>
+      </c>
+      <c r="DC4" s="63">
+        <v>3544.98</v>
+      </c>
+      <c r="DD4" s="63">
+        <v>2954.15</v>
+      </c>
+      <c r="DE4" s="63">
+        <v>0</v>
+      </c>
+      <c r="DF4" s="63">
+        <v>590.83000000000004</v>
+      </c>
+      <c r="DG4" s="63">
+        <v>0</v>
+      </c>
+      <c r="DH4" s="63">
+        <v>0</v>
+      </c>
+      <c r="DI4" s="64">
+        <v>36526</v>
+      </c>
+      <c r="DK4" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="DL4" s="68"/>
+      <c r="DM4" t="s">
+        <v>139</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>139</v>
+      </c>
+      <c r="DP4" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>131</v>
+      </c>
+      <c r="DR4" s="68" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="63">
+        <v>0</v>
+      </c>
+      <c r="C5" s="63">
+        <v>0</v>
+      </c>
+      <c r="D5" s="63">
+        <v>202.52</v>
+      </c>
+      <c r="E5" s="63">
+        <v>202.52</v>
+      </c>
+      <c r="F5" s="63">
+        <v>0</v>
+      </c>
+      <c r="G5" s="63">
+        <v>0</v>
+      </c>
+      <c r="H5" s="63">
+        <v>0</v>
+      </c>
+      <c r="I5" s="63">
+        <v>0</v>
+      </c>
+      <c r="J5" s="63">
+        <v>0</v>
+      </c>
+      <c r="K5" s="63">
+        <v>0</v>
+      </c>
+      <c r="L5" s="63">
+        <v>59050561.409999996</v>
+      </c>
+      <c r="M5" s="63">
+        <v>48827882.259999998</v>
+      </c>
+      <c r="N5" s="63">
+        <v>22359.68</v>
+      </c>
+      <c r="O5" s="63">
+        <v>123463.2</v>
+      </c>
+      <c r="P5" s="63">
+        <v>9765574.3499999996</v>
+      </c>
+      <c r="Q5" s="63">
+        <v>1565.14</v>
+      </c>
+      <c r="R5" s="63">
+        <v>0</v>
+      </c>
+      <c r="S5" s="63">
+        <v>309473.75</v>
+      </c>
+      <c r="T5" s="63">
+        <v>309473.75</v>
+      </c>
+      <c r="U5" s="63">
+        <v>0</v>
+      </c>
+      <c r="V5" s="63">
+        <v>123694.78</v>
+      </c>
+      <c r="W5" s="63">
+        <v>0</v>
+      </c>
+      <c r="X5" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="63">
+        <v>1244624239.75</v>
+      </c>
+      <c r="AA5" s="63">
+        <v>712391934.27999997</v>
+      </c>
+      <c r="AB5" s="63">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="63">
+        <v>142478386.78999999</v>
+      </c>
+      <c r="AD5" s="63">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="63">
+        <v>389629893.60000002</v>
+      </c>
+      <c r="AG5" s="63">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="63">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="63">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="63">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="63">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="63">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL5" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM5" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="BN5" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO5" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="BP5" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="BQ5" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR5" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="BS5" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="BT5" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>131</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH5" s="64">
+        <v>42600</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>134</v>
+      </c>
+      <c r="CL5" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="CP5" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ5" s="63">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="63">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="63">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="63">
+        <v>0</v>
+      </c>
+      <c r="CV5" s="64"/>
+      <c r="CW5" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>136</v>
+      </c>
+      <c r="CZ5" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="DA5" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>139</v>
+      </c>
+      <c r="DC5" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="DD5" s="63">
+        <v>2954.15</v>
+      </c>
+      <c r="DE5" s="63">
+        <v>0</v>
+      </c>
+      <c r="DF5" s="63">
+        <v>590.83000000000004</v>
+      </c>
+      <c r="DG5" s="63">
+        <v>0</v>
+      </c>
+      <c r="DH5" s="63">
+        <v>0</v>
+      </c>
+      <c r="DI5" s="64">
+        <v>36526</v>
+      </c>
+      <c r="DK5" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="DL5" s="68"/>
+      <c r="DM5" t="s">
+        <v>139</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>139</v>
+      </c>
+      <c r="DP5" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>131</v>
+      </c>
+      <c r="DR5" s="68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="63">
+        <v>0</v>
+      </c>
+      <c r="C6" s="63">
+        <v>0</v>
+      </c>
+      <c r="D6" s="63">
+        <v>202.52</v>
+      </c>
+      <c r="E6" s="63">
+        <v>202.52</v>
+      </c>
+      <c r="F6" s="63">
+        <v>0</v>
+      </c>
+      <c r="G6" s="63">
+        <v>0</v>
+      </c>
+      <c r="H6" s="63">
+        <v>0</v>
+      </c>
+      <c r="I6" s="63">
+        <v>0</v>
+      </c>
+      <c r="J6" s="63">
+        <v>0</v>
+      </c>
+      <c r="K6" s="63">
+        <v>0</v>
+      </c>
+      <c r="L6" s="63">
+        <v>59050561.409999996</v>
+      </c>
+      <c r="M6" s="63">
+        <v>48827882.259999998</v>
+      </c>
+      <c r="N6" s="63">
+        <v>22359.68</v>
+      </c>
+      <c r="O6" s="63">
+        <v>123463.2</v>
+      </c>
+      <c r="P6" s="63">
+        <v>9765574.3499999996</v>
+      </c>
+      <c r="Q6" s="63">
+        <v>1565.14</v>
+      </c>
+      <c r="R6" s="63">
+        <v>0</v>
+      </c>
+      <c r="S6" s="63">
+        <v>309473.75</v>
+      </c>
+      <c r="T6" s="63">
+        <v>309473.75</v>
+      </c>
+      <c r="U6" s="63">
+        <v>0</v>
+      </c>
+      <c r="V6" s="63">
+        <v>123694.78</v>
+      </c>
+      <c r="W6" s="63">
+        <v>0</v>
+      </c>
+      <c r="X6" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="63">
+        <v>1244624239.75</v>
+      </c>
+      <c r="AA6" s="63">
+        <v>712391934.27999997</v>
+      </c>
+      <c r="AB6" s="63">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="63">
+        <v>142478386.78999999</v>
+      </c>
+      <c r="AD6" s="63">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="63">
+        <v>389629893.60000002</v>
+      </c>
+      <c r="AG6" s="63">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="63">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="63">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="63">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="63">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="63">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL6" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM6" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="BN6" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO6" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="BP6" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="BQ6" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR6" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="BS6" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="BT6" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>131</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>131</v>
+      </c>
+      <c r="CB6">
+        <v>14</v>
+      </c>
+      <c r="CH6" s="64">
+        <v>42600</v>
+      </c>
+      <c r="CJ6">
+        <v>2021</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>134</v>
+      </c>
+      <c r="CL6" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="CP6" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ6" s="63">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="63">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="63">
+        <v>0</v>
+      </c>
+      <c r="CT6" s="63">
+        <v>0</v>
+      </c>
+      <c r="CV6" s="64"/>
+      <c r="CW6" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>136</v>
+      </c>
+      <c r="CZ6" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="DA6" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>139</v>
+      </c>
+      <c r="DC6" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="DD6" s="63">
+        <v>2954.15</v>
+      </c>
+      <c r="DE6" s="63">
+        <v>0</v>
+      </c>
+      <c r="DF6" s="63">
+        <v>590.83000000000004</v>
+      </c>
+      <c r="DG6" s="63">
+        <v>0</v>
+      </c>
+      <c r="DH6" s="63">
+        <v>0</v>
+      </c>
+      <c r="DI6" s="64">
+        <v>36526</v>
+      </c>
+      <c r="DK6" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="DL6" s="68"/>
+      <c r="DM6" t="s">
+        <v>139</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>139</v>
+      </c>
+      <c r="DP6" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>131</v>
+      </c>
+      <c r="DR6" s="68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" s="63">
+        <v>0</v>
+      </c>
+      <c r="C7" s="63">
+        <v>0</v>
+      </c>
+      <c r="D7" s="63">
+        <v>202.52</v>
+      </c>
+      <c r="E7" s="63">
+        <v>202.52</v>
+      </c>
+      <c r="F7" s="63">
+        <v>0</v>
+      </c>
+      <c r="G7" s="63">
+        <v>0</v>
+      </c>
+      <c r="H7" s="63">
+        <v>0</v>
+      </c>
+      <c r="I7" s="63">
+        <v>0</v>
+      </c>
+      <c r="J7" s="63">
+        <v>0</v>
+      </c>
+      <c r="K7" s="63">
+        <v>0</v>
+      </c>
+      <c r="L7" s="63">
+        <v>59050561.409999996</v>
+      </c>
+      <c r="M7" s="63">
+        <v>48827882.259999998</v>
+      </c>
+      <c r="N7" s="63">
+        <v>22359.68</v>
+      </c>
+      <c r="O7" s="63">
+        <v>123463.2</v>
+      </c>
+      <c r="P7" s="63">
+        <v>9765574.3499999996</v>
+      </c>
+      <c r="Q7" s="63">
+        <v>1565.14</v>
+      </c>
+      <c r="R7" s="63">
+        <v>0</v>
+      </c>
+      <c r="S7" s="63">
+        <v>309473.75</v>
+      </c>
+      <c r="T7" s="63">
+        <v>309473.75</v>
+      </c>
+      <c r="U7" s="63">
+        <v>0</v>
+      </c>
+      <c r="V7" s="63">
+        <v>123694.78</v>
+      </c>
+      <c r="W7" s="63">
+        <v>0</v>
+      </c>
+      <c r="X7" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="63">
+        <v>1244624239.75</v>
+      </c>
+      <c r="AA7" s="63">
+        <v>712391934.27999997</v>
+      </c>
+      <c r="AB7" s="63">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="63">
+        <v>142478386.78999999</v>
+      </c>
+      <c r="AD7" s="63">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="63">
+        <v>389629893.60000002</v>
+      </c>
+      <c r="AG7" s="63">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="63">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="63">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="63">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="63">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="63">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL7" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM7" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="BN7" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO7" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="BP7" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="BQ7" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR7" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="BS7" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="BT7" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>131</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>131</v>
+      </c>
+      <c r="CB7">
+        <v>-14</v>
+      </c>
+      <c r="CH7" s="64">
+        <v>42600</v>
+      </c>
+      <c r="CJ7">
+        <v>2014</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>134</v>
+      </c>
+      <c r="CL7" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="CP7" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ7" s="63">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="63">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="63">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="63">
+        <v>0</v>
+      </c>
+      <c r="CV7" s="64"/>
+      <c r="CW7" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="CY7" t="s">
+        <v>136</v>
+      </c>
+      <c r="CZ7" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="DA7" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="DB7" t="s">
+        <v>139</v>
+      </c>
+      <c r="DC7" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="DD7" s="63">
+        <v>2954.15</v>
+      </c>
+      <c r="DE7" s="63">
+        <v>0</v>
+      </c>
+      <c r="DF7" s="63">
+        <v>590.83000000000004</v>
+      </c>
+      <c r="DG7" s="63">
+        <v>0</v>
+      </c>
+      <c r="DH7" s="63">
+        <v>0</v>
+      </c>
+      <c r="DI7" s="64">
+        <v>36526</v>
+      </c>
+      <c r="DK7" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="DL7" s="68"/>
+      <c r="DM7" t="s">
+        <v>139</v>
+      </c>
+      <c r="DO7" t="s">
+        <v>139</v>
+      </c>
+      <c r="DP7" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="DQ7" t="s">
+        <v>131</v>
+      </c>
+      <c r="DR7" s="68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" s="63">
+        <v>0</v>
+      </c>
+      <c r="C8" s="63">
+        <v>0</v>
+      </c>
+      <c r="D8" s="63">
+        <v>202.52</v>
+      </c>
+      <c r="E8" s="63">
+        <v>202.52</v>
+      </c>
+      <c r="F8" s="63">
+        <v>0</v>
+      </c>
+      <c r="G8" s="63">
+        <v>0</v>
+      </c>
+      <c r="H8" s="63">
+        <v>0</v>
+      </c>
+      <c r="I8" s="63">
+        <v>0</v>
+      </c>
+      <c r="J8" s="63">
+        <v>0</v>
+      </c>
+      <c r="K8" s="63">
+        <v>0</v>
+      </c>
+      <c r="L8" s="63">
+        <v>59050561.409999996</v>
+      </c>
+      <c r="M8" s="63">
+        <v>48827882.259999998</v>
+      </c>
+      <c r="N8" s="63">
+        <v>22359.68</v>
+      </c>
+      <c r="O8" s="63">
+        <v>123463.2</v>
+      </c>
+      <c r="P8" s="63">
+        <v>9765574.3499999996</v>
+      </c>
+      <c r="Q8" s="63">
+        <v>1565.14</v>
+      </c>
+      <c r="R8" s="63">
+        <v>0</v>
+      </c>
+      <c r="S8" s="63">
+        <v>309473.75</v>
+      </c>
+      <c r="T8" s="63">
+        <v>309473.75</v>
+      </c>
+      <c r="U8" s="63">
+        <v>0</v>
+      </c>
+      <c r="V8" s="63">
+        <v>123694.78</v>
+      </c>
+      <c r="W8" s="63">
+        <v>0</v>
+      </c>
+      <c r="X8" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="63">
+        <v>1244624239.75</v>
+      </c>
+      <c r="AA8" s="63">
+        <v>712391934.27999997</v>
+      </c>
+      <c r="AB8" s="63">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="63">
+        <v>142478386.78999999</v>
+      </c>
+      <c r="AD8" s="63">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="63">
+        <v>389629893.60000002</v>
+      </c>
+      <c r="AG8" s="63">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="63">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="63">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="63">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="63">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="63">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL8" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM8" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="BN8" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO8" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="BP8" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="BQ8" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR8" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="BS8" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="BT8" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>131</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>131</v>
+      </c>
+      <c r="CB8">
+        <v>-14</v>
+      </c>
+      <c r="CH8" s="64">
+        <v>42600</v>
+      </c>
+      <c r="CJ8">
+        <v>2014</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>134</v>
+      </c>
+      <c r="CL8" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="CP8" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ8" s="63">
+        <v>0</v>
+      </c>
+      <c r="CR8" s="63">
+        <v>0</v>
+      </c>
+      <c r="CS8" s="63">
+        <v>0</v>
+      </c>
+      <c r="CT8" s="63">
+        <v>0</v>
+      </c>
+      <c r="CV8" s="64"/>
+      <c r="CW8" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="CY8" t="s">
+        <v>136</v>
+      </c>
+      <c r="CZ8" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="DA8" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="DB8" t="s">
+        <v>139</v>
+      </c>
+      <c r="DC8" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="DD8" s="63">
+        <v>2954.15</v>
+      </c>
+      <c r="DE8" s="63">
+        <v>0</v>
+      </c>
+      <c r="DF8" s="63">
+        <v>590.83000000000004</v>
+      </c>
+      <c r="DG8" s="63">
+        <v>0</v>
+      </c>
+      <c r="DH8" s="63">
+        <v>0</v>
+      </c>
+      <c r="DI8" s="64">
+        <v>36526</v>
+      </c>
+      <c r="DK8" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="DL8" s="68"/>
+      <c r="DM8" t="s">
+        <v>139</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>139</v>
+      </c>
+      <c r="DP8" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="DQ8" t="s">
+        <v>131</v>
+      </c>
+      <c r="DR8" s="68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" s="63">
+        <v>0</v>
+      </c>
+      <c r="C9" s="63">
+        <v>0</v>
+      </c>
+      <c r="D9" s="63">
+        <v>202.52</v>
+      </c>
+      <c r="E9" s="63">
+        <v>202.52</v>
+      </c>
+      <c r="F9" s="63">
+        <v>0</v>
+      </c>
+      <c r="G9" s="63">
+        <v>0</v>
+      </c>
+      <c r="H9" s="63">
+        <v>0</v>
+      </c>
+      <c r="I9" s="63">
+        <v>0</v>
+      </c>
+      <c r="J9" s="63">
+        <v>0</v>
+      </c>
+      <c r="K9" s="63">
+        <v>0</v>
+      </c>
+      <c r="L9" s="63">
+        <v>59050561.409999996</v>
+      </c>
+      <c r="M9" s="63">
+        <v>48827882.259999998</v>
+      </c>
+      <c r="N9" s="63">
+        <v>22359.68</v>
+      </c>
+      <c r="O9" s="63">
+        <v>123463.2</v>
+      </c>
+      <c r="P9" s="63">
+        <v>9765574.3499999996</v>
+      </c>
+      <c r="Q9" s="63">
+        <v>1565.14</v>
+      </c>
+      <c r="R9" s="63">
+        <v>0</v>
+      </c>
+      <c r="S9" s="63">
+        <v>309473.75</v>
+      </c>
+      <c r="T9" s="63">
+        <v>309473.75</v>
+      </c>
+      <c r="U9" s="63">
+        <v>0</v>
+      </c>
+      <c r="V9" s="63">
+        <v>123694.78</v>
+      </c>
+      <c r="W9" s="63">
+        <v>0</v>
+      </c>
+      <c r="X9" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="63">
+        <v>1244624239.75</v>
+      </c>
+      <c r="AA9" s="63">
+        <v>712391934.27999997</v>
+      </c>
+      <c r="AB9" s="63">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="63">
+        <v>142478386.78999999</v>
+      </c>
+      <c r="AD9" s="63">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="63">
+        <v>389629893.60000002</v>
+      </c>
+      <c r="AG9" s="63">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="63">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="63">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="63">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="63">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="63">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL9" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM9" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="BN9" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO9" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="BP9" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="BQ9" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR9" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="BS9" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="BT9" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>131</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>131</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH9" s="64">
+        <v>42600</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>134</v>
+      </c>
+      <c r="CL9" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="CP9" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ9" s="63">
+        <v>0</v>
+      </c>
+      <c r="CR9" s="63">
+        <v>0</v>
+      </c>
+      <c r="CS9" s="63">
+        <v>0</v>
+      </c>
+      <c r="CT9" s="63">
+        <v>0</v>
+      </c>
+      <c r="CV9" s="64">
+        <v>42551</v>
+      </c>
+      <c r="CW9" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="CY9" t="s">
+        <v>136</v>
+      </c>
+      <c r="CZ9" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="DA9" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="DB9" t="s">
+        <v>139</v>
+      </c>
+      <c r="DC9" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="DD9" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="DE9" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="DF9" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="DG9" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="DH9" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="DI9" s="64">
+        <v>36526</v>
+      </c>
+      <c r="DK9" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="DL9" s="68"/>
+      <c r="DM9" t="s">
+        <v>139</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>139</v>
+      </c>
+      <c r="DP9" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="DQ9" t="s">
+        <v>131</v>
+      </c>
+      <c r="DR9" s="68" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
